--- a/medicine/Premiers secours et secourisme/Clé_tricoise/Clé_tricoise.xlsx
+++ b/medicine/Premiers secours et secourisme/Clé_tricoise/Clé_tricoise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cl%C3%A9_tricoise</t>
+          <t>Clé_tricoise</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une clé tricoise est un outil utilisé par les sapeurs-pompiers et qui permet de serrer les raccords des tuyaux. Elle est en principe fabriquée en laiton. Elle peut avoir d'autres fonctions (tournevis, ouverture de dispositifs divers), auquel cas on parle alors de clé polycoise.
 Sur la photographie ci-contre, les deux clés rouges (en haut) sont des clés que l'on retrouve dans les véhicules et motopompes remorquables des pompiers. 
